--- a/game/Decide/Decide/Asset/Data/ItemData/ItemData.xlsx
+++ b/game/Decide/Decide/Asset/Data/ItemData/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbc15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbc15\Desktop\game\game\Decide\Decide\Asset\Data\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,11 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">小麦粉またはライ麦粉に水を加えてこね上げてできる生地を焼いた食品。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>加熱加工済みの肉。</t>
     <rPh sb="0" eb="2">
       <t>カネツ</t>
@@ -218,6 +213,10 @@
     <rPh sb="26" eb="27">
       <t>ア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小麦粉またはライ麦粉に水を加えてこね上げてできる生地を焼いた食品。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,7 +553,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -599,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -613,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -627,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -641,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -655,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -669,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -683,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>20</v>

--- a/game/Decide/Decide/Asset/Data/ItemData/ItemData.xlsx
+++ b/game/Decide/Decide/Asset/Data/ItemData/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbc15\Desktop\game\game\Decide\Decide\Asset\Data\ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Users\Desktop\game\game\Decide\Decide\Asset\Data\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -103,16 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動速度U薬</t>
-    <rPh sb="0" eb="4">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>クスリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>木になる果実。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,26 +187,130 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>薬草を用いて作られた身体能力を上げる薬。移動速度をが上がる。</t>
-    <rPh sb="10" eb="12">
-      <t>シンタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小麦粉またはライ麦粉に水を加えてこね上げてできる生地を焼いた食品。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Filepath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EffectValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RangeStrength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple.png</t>
+  </si>
+  <si>
+    <t>apple.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/0/0/0/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/0/0/0/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meat.png</t>
+  </si>
+  <si>
+    <t>20/0/0/0/0/0/0/0/0</t>
+  </si>
+  <si>
+    <t>30/0/0/0/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/0/0/0/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔力回復薬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬草を用いて作られた魔力を回復する薬。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buff.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/50/0/0/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0/50/50/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0/0/0/50/50/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃Down薬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬草を用いて作られた身体能力を下げる薬。\n攻撃力が下がる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeBuff.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0/-50/-50/0/0/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御Down薬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0/0/0/-50/-50/0/0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムキムキ！諸刃の薬！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0/50/50/-50/-50/0/0/0</t>
+  </si>
+  <si>
+    <t>薬草を用いた身体能力に影響を及ぼす薬。\n攻撃を上げ、防御を下げる。\nまさに諸刃・・・。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬草を用いた身体能力に影響を及ぼす薬。\n防御を上げ、攻撃を下げる。\nまさに諸刃・・・。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0/-50/-50/50/50/0/0/1</t>
+  </si>
+  <si>
+    <t>ガチガチ！諸刃の薬</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -550,142 +644,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="55.5" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
